--- a/biology/Botanique/Fallopia/Fallopia.xlsx
+++ b/biology/Botanique/Fallopia/Fallopia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fallopia est un genre de plantes de la famille des Polygonaceae. Ce sont des plantes grimpantes, herbacées, semi-ligneuses ou ligneuses originaires de l'Eurasie et de l'est de l'Amérique du Nord, mais introduites et cultivées dans le reste du monde[2]. La synonymie de certaines espèces avec les genres Reynoutria et Polygonum n'est pas clairement établie. Le nom de « Fallopia » provient de Gabriele Falloppio, également nommé Fallopius, un superintendant du jardin botanique de Padoue et un anatomiste parmi les fondateurs de l'anatomie moderne avec André Vésale et Eustache.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fallopia est un genre de plantes de la famille des Polygonaceae. Ce sont des plantes grimpantes, herbacées, semi-ligneuses ou ligneuses originaires de l'Eurasie et de l'est de l'Amérique du Nord, mais introduites et cultivées dans le reste du monde. La synonymie de certaines espèces avec les genres Reynoutria et Polygonum n'est pas clairement établie. Le nom de « Fallopia » provient de Gabriele Falloppio, également nommé Fallopius, un superintendant du jardin botanique de Padoue et un anatomiste parmi les fondateurs de l'anatomie moderne avec André Vésale et Eustache.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces selon les jardins botaniques de Kew[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces selon les jardins botaniques de Kew :
 Fallopia aubertii (L.Henry) Holub
 Fallopia baldschuanica (Regel) Holub
 Fallopia convolvulus (L.) Á.Löve
@@ -555,11 +569,13 @@
           <t>Le genre Reynoutria</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon certaines sources, les espèces du genre Reynoutria sont incluses dans le genre Fallopia. En effet, selon l'avis de Ronse Decraene &amp; Akeroyd de 1988, Reynoutria est une section de Fallopia[3].
-Fallopia est composé de plantes grimpantes à l'inflorescence axillaire à axe simple, au périanthe charnu aux stigmates capités et aux pièces extérieures des fruits parfois ailées. Quant au genre Reynoutria, il est constitué de plantes non grimpantes à l'inflorescence axillaire à axe ramifié, au périanthe fin, aux stigmates flabellés et aux pièces extérieures des fruits non ailées[4],[5].
-Liste des espèces incluses dans le genre Reynoutria selon les jardins botaniques de Kew[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon certaines sources, les espèces du genre Reynoutria sont incluses dans le genre Fallopia. En effet, selon l'avis de Ronse Decraene &amp; Akeroyd de 1988, Reynoutria est une section de Fallopia.
+Fallopia est composé de plantes grimpantes à l'inflorescence axillaire à axe simple, au périanthe charnu aux stigmates capités et aux pièces extérieures des fruits parfois ailées. Quant au genre Reynoutria, il est constitué de plantes non grimpantes à l'inflorescence axillaire à axe ramifié, au périanthe fin, aux stigmates flabellés et aux pièces extérieures des fruits non ailées,.
+Liste des espèces incluses dans le genre Reynoutria selon les jardins botaniques de Kew :
 Reynoutria ciliinervis (Nakai) Moldenke
 Reynoutria compacta (Hook.fil.) Nakai - la Renouée compactée
 Reynoutria fargesii (Hance) T.Yamaz.
@@ -595,9 +611,11 @@
           <t>Le genre Polygonum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique du Missouri[6] suit en partie l'avis des Américains Francis Zika et Arthur Jacobson de 2003 qui placent l'ensemble des espèces du genre Fallopia, Reynoutria incluses, dans le genre Polygonum. En effet, ils estiment qu'il existe trop de traits morphologiques intermédiaires pour pouvoir le scinder en plusieurs groupes distincts[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique du Missouri suit en partie l'avis des Américains Francis Zika et Arthur Jacobson de 2003 qui placent l'ensemble des espèces du genre Fallopia, Reynoutria incluses, dans le genre Polygonum. En effet, ils estiment qu'il existe trop de traits morphologiques intermédiaires pour pouvoir le scinder en plusieurs groupes distincts.
 </t>
         </is>
       </c>
@@ -626,14 +644,16 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les genres et la section suivants sont synonymes de Fallopia :
-Bilderdykia Dumort., 1827[1],[2]
-Helxine Raf., 1837 [nom. illeg.][1],[2]
-Polygonum sect. Tiniaria Meisn., 1826[1]
-Pleuropterus Turcz.[1],[2]
-Tiniaria (Meisn.) Rchb., 1837[1],[2]</t>
+Bilderdykia Dumort., 1827,
+Helxine Raf., 1837 [nom. illeg.],
+Polygonum sect. Tiniaria Meisn., 1826
+Pleuropterus Turcz.,
+Tiniaria (Meisn.) Rchb., 1837,</t>
         </is>
       </c>
     </row>
